--- a/medicine/Psychotrope/Skuff/Skuff.xlsx
+++ b/medicine/Psychotrope/Skuff/Skuff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le skuff est un dérivé manufacturé du cannabis. Il se différencie de son cousin le haschich de par la différence du tamisage utilisé. Le tamis est plus grossier que pour le haschich, permettant de laisser passer, outre les trichomes et donc le THC, des débris végétaux (particules de feuilles, de fleurs de cannabis).
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hommes ont mis en place différents procédés afin de conditionner et d'élaborer des dérivés de la marijuana.
 Un de ces procédés consistait à étendre un grand carré de tissu étanche au sol puis de réunir plusieurs kilogrammes de fleurs de cannabis dans un linge de coton fermé par une corde de chanvre en un gros baluchon. Ensuite le baluchon était frappé vigoureusement contre le sol sur la toile jusqu'à ce que la plupart des particules fines se soient échappées du baluchon. La poudre recueillie sur la toile était récupérée puis agglomérée à la main et enfin pressée en bloc ou en plaque compacte.
@@ -546,7 +560,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le skuff est un produit extrêmement concentré en THC, le taux est supérieur à 20 % et peut atteindre presque 30 % pour les variétés les plus modernes.
 Le skuff est de couleur vert-brun à vert vif, sa consistance est solide et compacte et il brûle très rapidement dès qu'une flamme est approchée.
